--- a/output/bivariate/women/anc_4_visits_bivariate_diff.xlsx
+++ b/output/bivariate/women/anc_4_visits_bivariate_diff.xlsx
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
